--- a/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST/AVERAGE_1_6_matched_errors_latest.xlsx
+++ b/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST/AVERAGE_1_6_matched_errors_latest.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Q0</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>2020-01-01 00:00:00_diff</t>
+  </si>
+  <si>
+    <t>2020-04-01 00:00:00_diff</t>
   </si>
   <si>
     <t>2020-07-01 00:00:00_diff</t>
@@ -455,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -515,25 +518,25 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>-18.36749132628568</v>
+        <v>6.652313087672924</v>
       </c>
       <c r="C3">
-        <v>-10.65809472662953</v>
+        <v>-10.89834099542839</v>
       </c>
       <c r="D3">
-        <v>-9.07518206574262</v>
+        <v>-3.188944395772239</v>
       </c>
       <c r="E3">
-        <v>-12.04146905809188</v>
+        <v>-1.606031734885327</v>
       </c>
       <c r="F3">
-        <v>-9.777437903427414</v>
+        <v>-4.572318727234583</v>
       </c>
       <c r="G3">
-        <v>-10.22859205835415</v>
+        <v>-2.30828757257012</v>
       </c>
       <c r="H3">
-        <v>-10.36895612186813</v>
+        <v>-2.759441727496859</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -541,25 +544,25 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>7.513167073507937</v>
+        <v>-18.36749132628568</v>
       </c>
       <c r="C4">
-        <v>9.096079734394849</v>
+        <v>-10.65809472662953</v>
       </c>
       <c r="D4">
-        <v>6.129792742045593</v>
+        <v>-9.07518206574262</v>
       </c>
       <c r="E4">
-        <v>8.393823896710055</v>
+        <v>-12.04146905809188</v>
       </c>
       <c r="F4">
-        <v>7.942669741783317</v>
+        <v>-9.777437903427414</v>
       </c>
       <c r="G4">
-        <v>7.802305678269343</v>
+        <v>-10.22859205835415</v>
       </c>
       <c r="H4">
-        <v>8.32854468913156</v>
+        <v>-10.36895612186813</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -567,25 +570,25 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9564081874156993</v>
+        <v>7.513167073507937</v>
       </c>
       <c r="C5">
-        <v>-2.009878804933557</v>
+        <v>9.096079734394849</v>
       </c>
       <c r="D5">
-        <v>0.2541523497309064</v>
+        <v>6.129792742045593</v>
       </c>
       <c r="E5">
-        <v>-0.1970018051958322</v>
+        <v>8.393823896710055</v>
       </c>
       <c r="F5">
-        <v>-0.3373658687098063</v>
+        <v>7.942669741783317</v>
       </c>
       <c r="G5">
-        <v>0.1888731421524112</v>
+        <v>7.802305678269343</v>
       </c>
       <c r="H5">
-        <v>0.0470441954131372</v>
+        <v>8.32854468913156</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -593,25 +596,25 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>-4.157449276732949</v>
+        <v>0.9564081874156993</v>
       </c>
       <c r="C6">
-        <v>-1.893418122068486</v>
+        <v>-2.009878804933557</v>
       </c>
       <c r="D6">
-        <v>-2.344572276995224</v>
+        <v>0.2541523497309064</v>
       </c>
       <c r="E6">
-        <v>-2.484936340509199</v>
+        <v>-0.1970018051958322</v>
       </c>
       <c r="F6">
-        <v>-1.958697329646981</v>
+        <v>-0.3373658687098063</v>
       </c>
       <c r="G6">
-        <v>-2.100526276386255</v>
+        <v>0.1888731421524112</v>
       </c>
       <c r="H6">
-        <v>-1.457551654984191</v>
+        <v>0.0470441954131372</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -619,25 +622,25 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>1.546611864454844</v>
+        <v>-4.157449276732949</v>
       </c>
       <c r="C7">
-        <v>1.095457709528105</v>
+        <v>-1.893418122068486</v>
       </c>
       <c r="D7">
-        <v>0.9550936460141312</v>
+        <v>-2.344572276995224</v>
       </c>
       <c r="E7">
-        <v>1.481332656876349</v>
+        <v>-2.484936340509199</v>
       </c>
       <c r="F7">
-        <v>1.339503710137075</v>
+        <v>-1.958697329646981</v>
       </c>
       <c r="G7">
-        <v>1.982478331539139</v>
+        <v>-2.100526276386255</v>
       </c>
       <c r="H7">
-        <v>2.106891037868721</v>
+        <v>-1.457551654984191</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -645,25 +648,25 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>1.156631887942306</v>
+        <v>1.546611864454844</v>
       </c>
       <c r="C8">
-        <v>1.016267824428332</v>
+        <v>1.095457709528105</v>
       </c>
       <c r="D8">
-        <v>1.54250683529055</v>
+        <v>0.9550936460141312</v>
       </c>
       <c r="E8">
-        <v>1.400677888551276</v>
+        <v>1.481332656876349</v>
       </c>
       <c r="F8">
-        <v>2.04365250995334</v>
+        <v>1.339503710137075</v>
       </c>
       <c r="G8">
-        <v>2.168065216282922</v>
+        <v>1.982478331539139</v>
       </c>
       <c r="H8">
-        <v>1.770435010245305</v>
+        <v>2.106891037868721</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -671,25 +674,25 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>-1.025188112727922</v>
+        <v>1.156631887942306</v>
       </c>
       <c r="C9">
-        <v>-0.4989491018657047</v>
+        <v>1.016267824428332</v>
       </c>
       <c r="D9">
-        <v>-0.6407780486049788</v>
+        <v>1.54250683529055</v>
       </c>
       <c r="E9">
-        <v>0.002196572797085183</v>
+        <v>1.400677888551276</v>
       </c>
       <c r="F9">
-        <v>0.1266092791266676</v>
+        <v>2.04365250995334</v>
       </c>
       <c r="G9">
-        <v>-0.2710209269109496</v>
+        <v>2.168065216282922</v>
       </c>
       <c r="H9">
-        <v>-0.3471896406117954</v>
+        <v>1.770435010245305</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -697,25 +700,25 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.08364543516793629</v>
+        <v>-1.025188112727922</v>
       </c>
       <c r="C10">
-        <v>-0.05818351157133772</v>
+        <v>-0.4989491018657047</v>
       </c>
       <c r="D10">
-        <v>0.5847911098307261</v>
+        <v>-0.6407780486049788</v>
       </c>
       <c r="E10">
-        <v>0.7092038161603086</v>
+        <v>0.002196572797085183</v>
       </c>
       <c r="F10">
-        <v>0.3115736101226914</v>
+        <v>0.1266092791266676</v>
       </c>
       <c r="G10">
-        <v>0.2354048964218456</v>
+        <v>-0.2710209269109496</v>
       </c>
       <c r="H10">
-        <v>0.5117269545447671</v>
+        <v>-0.3471896406117954</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -723,25 +726,25 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.1538585523806955</v>
+        <v>0.08364543516793629</v>
       </c>
       <c r="C11">
-        <v>0.4891160690213684</v>
+        <v>-0.05818351157133772</v>
       </c>
       <c r="D11">
-        <v>0.6135287753509509</v>
+        <v>0.5847911098307261</v>
       </c>
       <c r="E11">
-        <v>0.2158985693133336</v>
+        <v>0.7092038161603086</v>
       </c>
       <c r="F11">
-        <v>0.1397298556124878</v>
+        <v>0.3115736101226914</v>
       </c>
       <c r="G11">
-        <v>0.4160519137354094</v>
+        <v>0.2354048964218456</v>
       </c>
       <c r="H11">
-        <v>0.2448320914236854</v>
+        <v>0.5117269545447671</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -749,25 +752,25 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7495351060200912</v>
+        <v>-0.1538585523806955</v>
       </c>
       <c r="C12">
-        <v>0.8739478123496736</v>
+        <v>0.4891160690213684</v>
       </c>
       <c r="D12">
-        <v>0.4763176063120564</v>
+        <v>0.6135287753509509</v>
       </c>
       <c r="E12">
-        <v>0.4001488926112106</v>
+        <v>0.2158985693133336</v>
       </c>
       <c r="F12">
-        <v>0.6764709507341322</v>
+        <v>0.1397298556124878</v>
       </c>
       <c r="G12">
-        <v>0.5052511284224082</v>
+        <v>0.4160519137354094</v>
       </c>
       <c r="H12">
-        <v>0.6583985339311494</v>
+        <v>0.2448320914236854</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -775,25 +778,25 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.03849281619118239</v>
+        <v>0.7495351060200912</v>
       </c>
       <c r="C13">
-        <v>-0.3591373898464348</v>
+        <v>0.8739478123496736</v>
       </c>
       <c r="D13">
-        <v>-0.4353061035472806</v>
+        <v>0.4763176063120564</v>
       </c>
       <c r="E13">
-        <v>-0.158984045424359</v>
+        <v>0.4001488926112106</v>
       </c>
       <c r="F13">
-        <v>-0.330203867736083</v>
+        <v>0.6764709507341322</v>
       </c>
       <c r="G13">
-        <v>-0.1770564622273418</v>
+        <v>0.5052511284224082</v>
       </c>
       <c r="H13">
-        <v>-0.4544852366504605</v>
+        <v>0.6583985339311494</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -801,25 +804,25 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.2590580299438133</v>
+        <v>0.03849281619118239</v>
       </c>
       <c r="C14">
-        <v>-0.3352267436446591</v>
+        <v>-0.3591373898464348</v>
       </c>
       <c r="D14">
-        <v>-0.0589046855217375</v>
+        <v>-0.4353061035472806</v>
       </c>
       <c r="E14">
-        <v>-0.2301245078334615</v>
+        <v>-0.158984045424359</v>
       </c>
       <c r="F14">
-        <v>-0.07697710232472027</v>
+        <v>-0.330203867736083</v>
       </c>
       <c r="G14">
-        <v>-0.354405876747839</v>
+        <v>-0.1770564622273418</v>
       </c>
       <c r="H14">
-        <v>-0.5173935701067854</v>
+        <v>-0.4544852366504605</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -827,25 +830,25 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.01855976243503714</v>
+        <v>-0.2590580299438133</v>
       </c>
       <c r="C15">
-        <v>0.2948818205579588</v>
+        <v>-0.3352267436446591</v>
       </c>
       <c r="D15">
-        <v>0.1236619982462347</v>
+        <v>-0.0589046855217375</v>
       </c>
       <c r="E15">
-        <v>0.276809403754976</v>
+        <v>-0.2301245078334615</v>
       </c>
       <c r="F15">
-        <v>-0.0006193706681427817</v>
+        <v>-0.07697710232472027</v>
       </c>
       <c r="G15">
-        <v>-0.1636070640270892</v>
+        <v>-0.354405876747839</v>
       </c>
       <c r="H15">
-        <v>-0.287689639421607</v>
+        <v>-0.5173935701067854</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -853,117 +856,143 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.1467044301255134</v>
+        <v>0.01855976243503714</v>
       </c>
       <c r="C16">
-        <v>-0.0245153921862106</v>
+        <v>0.2948818205579588</v>
       </c>
       <c r="D16">
-        <v>0.1286320133225306</v>
+        <v>0.1236619982462347</v>
       </c>
       <c r="E16">
-        <v>-0.1487967611005881</v>
+        <v>0.276809403754976</v>
       </c>
       <c r="F16">
-        <v>-0.3117844544595345</v>
+        <v>-0.0006193706681427817</v>
       </c>
       <c r="G16">
-        <v>-0.4358670298540523</v>
+        <v>-0.1636070640270892</v>
       </c>
       <c r="H16">
-        <v>0.1470735274266985</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.287689639421607</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B17">
-        <v>-0.1819613811903656</v>
+        <v>0.1467044301255134</v>
       </c>
       <c r="C17">
-        <v>-0.02881397568162436</v>
+        <v>-0.0245153921862106</v>
       </c>
       <c r="D17">
-        <v>-0.3062427501047431</v>
+        <v>0.1286320133225306</v>
       </c>
       <c r="E17">
-        <v>-0.4692304434636895</v>
+        <v>-0.1487967611005881</v>
       </c>
       <c r="F17">
-        <v>-0.5933130188582073</v>
+        <v>-0.3117844544595345</v>
       </c>
       <c r="G17">
-        <v>-0.01037246157745647</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>-0.4358670298540523</v>
+      </c>
+      <c r="H17">
+        <v>0.1470735274266985</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4718454808444464</v>
+        <v>-0.1819613811903656</v>
       </c>
       <c r="C18">
-        <v>0.1944167064213277</v>
+        <v>-0.02881397568162436</v>
       </c>
       <c r="D18">
-        <v>0.0314290130623813</v>
+        <v>-0.3062427501047431</v>
       </c>
       <c r="E18">
-        <v>-0.09265356233213651</v>
+        <v>-0.4692304434636895</v>
       </c>
       <c r="F18">
-        <v>0.4902869949486143</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>-0.5933130188582073</v>
+      </c>
+      <c r="G18">
+        <v>-0.01037246157745647</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.08594117411414147</v>
+        <v>0.4718454808444464</v>
       </c>
       <c r="C19">
-        <v>-0.2489288674730878</v>
+        <v>0.1944167064213277</v>
       </c>
       <c r="D19">
-        <v>-0.3730114428676057</v>
+        <v>0.0314290130623813</v>
       </c>
       <c r="E19">
-        <v>0.2099291144131452</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.09265356233213651</v>
+      </c>
+      <c r="F19">
+        <v>0.4902869949486143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.07695400962807622</v>
+        <v>-0.08594117411414147</v>
       </c>
       <c r="C20">
-        <v>-0.201036585022594</v>
+        <v>-0.2489288674730878</v>
       </c>
       <c r="D20">
-        <v>0.3819039722581568</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.3730114428676057</v>
+      </c>
+      <c r="E20">
+        <v>0.2099291144131452</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.5068991247689255</v>
+        <v>-0.07695400962807622</v>
       </c>
       <c r="C21">
-        <v>0.07604143251182532</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.201036585022594</v>
+      </c>
+      <c r="D21">
+        <v>0.3819039722581568</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B22">
+        <v>-0.5068991247689255</v>
+      </c>
+      <c r="C22">
+        <v>0.07604143251182532</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
         <v>0.6883713851991116</v>
       </c>
     </row>
